--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AD5C7B-9741-4C4B-8B23-43F9451CD532}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>asdasdasd</t>
   </si>
@@ -34,11 +33,14 @@
   <si>
     <t>asdasd</t>
   </si>
+  <si>
+    <t>asdasdasdasd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,10 +351,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -389,13 +391,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801EAA46-1BC3-400F-A02C-178E1B438A2C}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AD5C7B-9741-4C4B-8B23-43F9451CD532}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F30D24-83E5-4741-858A-FCDA53FC1C1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>asdasdasd</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>asdasd</t>
+  </si>
+  <si>
+    <t>asdasdasdasdasd</t>
   </si>
 </sst>
 </file>
@@ -350,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:H9"/>
+  <dimension ref="B4:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,6 +384,11 @@
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F30D24-83E5-4741-858A-FCDA53FC1C1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EA11D4-B573-41C6-9313-C6D91DAAB55E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>asdasdasd</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>asdasdasdasdasd</t>
+  </si>
+  <si>
+    <t>asdasdas</t>
   </si>
 </sst>
 </file>
@@ -353,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:H14"/>
+  <dimension ref="B4:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,6 +392,17 @@
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F30D24-83E5-4741-858A-FCDA53FC1C1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>asdasdasd</t>
   </si>
@@ -36,12 +35,15 @@
   </si>
   <si>
     <t>asdasdasdasdasd</t>
+  </si>
+  <si>
+    <t>asdasdasdasdas đá asd asd á</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,11 +354,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,13 +399,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801EAA46-1BC3-400F-A02C-178E1B438A2C}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>